--- a/data/exemplo_de_aula.xlsx
+++ b/data/exemplo_de_aula.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Nº</t>
   </si>
@@ -22,22 +22,22 @@
     <t>Nome</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Tensão</t>
-  </si>
-  <si>
-    <t>Faixa</t>
-  </si>
-  <si>
-    <t>Área</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Min</t>
+    <t>Barra 1</t>
+  </si>
+  <si>
+    <t>Barra 2</t>
+  </si>
+  <si>
+    <t>Barra 3</t>
+  </si>
+  <si>
+    <t>Barra 4</t>
+  </si>
+  <si>
+    <t>Barra 5</t>
+  </si>
+  <si>
+    <t>Barra 6</t>
   </si>
   <si>
     <t>Seqüência Positiva e Negativa</t>
@@ -52,27 +52,12 @@
     <t>Para</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Circ</t>
-  </si>
-  <si>
     <t>R+</t>
   </si>
   <si>
     <t>X+</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
     <t>R0</t>
   </si>
   <si>
@@ -85,61 +70,22 @@
     <t>Xd</t>
   </si>
   <si>
-    <t>Xq</t>
-  </si>
-  <si>
-    <t>X’d</t>
-  </si>
-  <si>
-    <t>X’’d</t>
-  </si>
-  <si>
-    <t>Xl</t>
-  </si>
-  <si>
-    <t>T’d</t>
-  </si>
-  <si>
-    <t>T’’d</t>
-  </si>
-  <si>
-    <t>T’’q</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Ra</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>Pot</t>
-  </si>
-  <si>
-    <t>Tap min</t>
-  </si>
-  <si>
-    <t>Tap max</t>
-  </si>
-  <si>
-    <t>Pos</t>
-  </si>
-  <si>
-    <t>Tp</t>
-  </si>
-  <si>
-    <t>Cn</t>
-  </si>
-  <si>
-    <t>Ce</t>
+    <t>Z0</t>
+  </si>
+  <si>
+    <t>Zn</t>
+  </si>
+  <si>
+    <t>Ligação De</t>
+  </si>
+  <si>
+    <t>Ligação para</t>
+  </si>
+  <si>
+    <t>estrela</t>
+  </si>
+  <si>
+    <t>delta</t>
   </si>
 </sst>
 </file>
@@ -179,7 +125,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border/>
     <border>
       <left style="thin">
@@ -199,6 +145,60 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -215,42 +215,9 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -259,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -269,32 +236,49 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,270 +512,269 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="1" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="1" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -817,125 +800,101 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="8" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="11">
+      <c r="A3" s="16">
         <v>2.0</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="16">
         <v>6.0</v>
       </c>
-      <c r="F3" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="C4" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="16">
         <v>0.35</v>
       </c>
-      <c r="K3" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="L3" s="11">
+      <c r="E4" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="16">
         <v>0.11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="11">
+    <row r="5">
+      <c r="A5" s="16">
         <v>3.0</v>
       </c>
-      <c r="F4" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0.45</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="B5" s="16">
         <v>6.0</v>
       </c>
-      <c r="F5" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="C5" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="16">
         <v>0.3</v>
       </c>
-      <c r="K5" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="L5" s="11">
+      <c r="E5" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="16">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -952,65 +911,29 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>33</v>
+      <c r="C1" s="18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11">
+      <c r="A2" s="16">
         <v>1.0</v>
       </c>
-      <c r="D2" s="11">
+      <c r="C2" s="16">
         <v>16.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11">
+      <c r="A3" s="16">
         <v>4.0</v>
       </c>
-      <c r="D3" s="11">
+      <c r="C3" s="16">
         <v>21.0</v>
       </c>
     </row>
@@ -1030,112 +953,126 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="3"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>41</v>
+      <c r="D2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11">
+      <c r="A3" s="16">
         <v>1.0</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="16">
         <v>2.0</v>
       </c>
-      <c r="G3" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="D3" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="16">
         <v>0.45</v>
       </c>
+      <c r="F3" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="11">
+      <c r="A4" s="16">
         <v>5.0</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="16">
         <v>6.0</v>
       </c>
-      <c r="G4" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="D4" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="16">
         <v>0.3</v>
       </c>
+      <c r="F4" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11">
+      <c r="A5" s="16">
         <v>3.0</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="16">
         <v>4.0</v>
       </c>
-      <c r="G5" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="D5" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="16">
         <v>0.35</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/exemplo_de_aula.xlsx
+++ b/data/exemplo_de_aula.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Nº</t>
   </si>
@@ -70,29 +70,20 @@
     <t>Xd</t>
   </si>
   <si>
+    <t>Xn</t>
+  </si>
+  <si>
     <t>Z0</t>
   </si>
   <si>
     <t>Zn</t>
-  </si>
-  <si>
-    <t>Ligação De</t>
-  </si>
-  <si>
-    <t>Ligação para</t>
-  </si>
-  <si>
-    <t>estrela</t>
-  </si>
-  <si>
-    <t>delta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -116,6 +107,10 @@
       <color theme="1"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="&quot;Times New Roman&quot;"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,8 +272,8 @@
     <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,6 +915,12 @@
       <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
+      <c r="D1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="16">
@@ -928,6 +929,12 @@
       <c r="C2" s="16">
         <v>16.0</v>
       </c>
+      <c r="D2" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="16">
@@ -935,6 +942,12 @@
       </c>
       <c r="C3" s="16">
         <v>21.0</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -980,16 +993,10 @@
         <v>13</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -1008,14 +1015,8 @@
       <c r="F3" s="16">
         <v>0.45</v>
       </c>
-      <c r="G3" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>23</v>
+      <c r="G3" s="20">
+        <v>999999.0</v>
       </c>
     </row>
     <row r="4">
@@ -1034,14 +1035,8 @@
       <c r="F4" s="16">
         <v>0.3</v>
       </c>
-      <c r="G4" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>23</v>
+      <c r="G4" s="20">
+        <v>999999.0</v>
       </c>
     </row>
     <row r="5">
@@ -1060,14 +1055,8 @@
       <c r="F5" s="16">
         <v>0.35</v>
       </c>
-      <c r="G5" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>23</v>
+      <c r="G5" s="20">
+        <v>999999.0</v>
       </c>
     </row>
   </sheetData>
